--- a/betshemesh_muni/BShemesh_final.xlsx
+++ b/betshemesh_muni/BShemesh_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>SRC</t>
   </si>
   <si>
     <t>sector</t>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>high_stu</t>
+  </si>
+  <si>
+    <t>moe_mosdot_coordinates</t>
   </si>
 </sst>
 </file>
@@ -392,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +426,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>114397</v>
       </c>
@@ -431,20 +440,23 @@
       <c r="C2">
         <v>627750</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>327</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>174748</v>
       </c>
@@ -454,20 +466,23 @@
       <c r="C3">
         <v>627386</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>636</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>225</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>238527</v>
       </c>
@@ -477,20 +492,23 @@
       <c r="C4">
         <v>628208</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>39</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>273086</v>
       </c>
@@ -500,20 +518,23 @@
       <c r="C5">
         <v>625922</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>336</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>97</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>721175</v>
       </c>
@@ -523,20 +544,23 @@
       <c r="C6">
         <v>628209</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>57</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>722074</v>
       </c>
@@ -546,20 +570,23 @@
       <c r="C7">
         <v>628585</v>
       </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>227439</v>
       </c>
@@ -569,20 +596,23 @@
       <c r="C8">
         <v>624186</v>
       </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>199</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>53</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>246033</v>
       </c>
@@ -592,20 +622,23 @@
       <c r="C9">
         <v>624783</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>398</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>194472</v>
       </c>
@@ -615,20 +648,23 @@
       <c r="C10">
         <v>624783</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>354</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>460667</v>
       </c>
@@ -638,20 +674,23 @@
       <c r="C11">
         <v>624804</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>244</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>193185</v>
       </c>
@@ -661,20 +700,23 @@
       <c r="C12">
         <v>624128</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>241</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>238121</v>
       </c>
@@ -684,20 +726,23 @@
       <c r="C13">
         <v>624168</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>311</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>723874</v>
       </c>
@@ -707,20 +752,23 @@
       <c r="C14">
         <v>627238</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>153</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>46</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>660472</v>
       </c>
@@ -730,20 +778,23 @@
       <c r="C15">
         <v>199223.4934</v>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>27</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>512269</v>
       </c>
@@ -753,20 +804,23 @@
       <c r="C16">
         <v>627441</v>
       </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>159</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>54</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>131052</v>
       </c>
@@ -776,20 +830,23 @@
       <c r="C17">
         <v>627248</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>458</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>114165</v>
       </c>
@@ -799,20 +856,23 @@
       <c r="C18">
         <v>627176</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>373</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>646018</v>
       </c>
@@ -822,20 +882,23 @@
       <c r="C19">
         <v>627238</v>
       </c>
-      <c r="D19">
-        <v>2</v>
+      <c r="D19" t="s">
+        <v>8</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>63</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>338418</v>
       </c>
@@ -845,20 +908,23 @@
       <c r="C20">
         <v>628290</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>165</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>140202</v>
       </c>
@@ -868,20 +934,23 @@
       <c r="C21">
         <v>628214</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>171</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>649962</v>
       </c>
@@ -891,20 +960,23 @@
       <c r="C22">
         <v>623623</v>
       </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="D22" t="s">
+        <v>8</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>102</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>649954</v>
       </c>
@@ -914,20 +986,23 @@
       <c r="C23">
         <v>623623</v>
       </c>
-      <c r="D23">
-        <v>2</v>
+      <c r="D23" t="s">
+        <v>8</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>46</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>113530</v>
       </c>
@@ -937,20 +1012,23 @@
       <c r="C24">
         <v>627493</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>372</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>511055</v>
       </c>
@@ -960,20 +1038,23 @@
       <c r="C25">
         <v>624933</v>
       </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="D25" t="s">
+        <v>8</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>345</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>70</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>511014</v>
       </c>
@@ -983,20 +1064,23 @@
       <c r="C26">
         <v>627866</v>
       </c>
-      <c r="D26">
-        <v>2</v>
+      <c r="D26" t="s">
+        <v>8</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>175</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>49</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>188060</v>
       </c>
@@ -1006,20 +1090,23 @@
       <c r="C27">
         <v>627946</v>
       </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="D27" t="s">
+        <v>8</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>685</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>159</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>165605</v>
       </c>
@@ -1029,20 +1116,23 @@
       <c r="C28">
         <v>624175</v>
       </c>
-      <c r="D28">
-        <v>2</v>
+      <c r="D28" t="s">
+        <v>8</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>656</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>226</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>652651</v>
       </c>
@@ -1052,20 +1142,23 @@
       <c r="C29">
         <v>627238</v>
       </c>
-      <c r="D29">
-        <v>2</v>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>86</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>730010</v>
       </c>
@@ -1075,34 +1168,37 @@
       <c r="C30">
         <v>623615</v>
       </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="D30" t="s">
+        <v>8</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>1233</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>223</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="D31">
-        <v>2</v>
-      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>273</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>658591</v>
       </c>
@@ -1112,20 +1208,23 @@
       <c r="C32">
         <v>623921</v>
       </c>
-      <c r="D32">
-        <v>2</v>
+      <c r="D32" t="s">
+        <v>8</v>
       </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>361</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>474734</v>
       </c>
@@ -1135,20 +1234,23 @@
       <c r="C33">
         <v>626694</v>
       </c>
-      <c r="D33">
-        <v>2</v>
+      <c r="D33" t="s">
+        <v>8</v>
       </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>446</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>136</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>649947</v>
       </c>
@@ -1158,20 +1260,23 @@
       <c r="C34">
         <v>627968</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>40</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>338244</v>
       </c>
@@ -1181,20 +1286,23 @@
       <c r="C35">
         <v>624222</v>
       </c>
-      <c r="D35">
-        <v>2</v>
+      <c r="D35" t="s">
+        <v>8</v>
       </c>
       <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>194</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>55</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>511469</v>
       </c>
@@ -1204,20 +1312,23 @@
       <c r="C36">
         <v>624876</v>
       </c>
-      <c r="D36">
-        <v>2</v>
+      <c r="D36" t="s">
+        <v>8</v>
       </c>
       <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>120</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>55</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>755447</v>
       </c>
@@ -1227,20 +1338,23 @@
       <c r="C37">
         <v>623535</v>
       </c>
-      <c r="D37">
-        <v>2</v>
+      <c r="D37" t="s">
+        <v>8</v>
       </c>
       <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>198</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>16</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>455154</v>
       </c>
@@ -1250,20 +1364,23 @@
       <c r="C38">
         <v>627203</v>
       </c>
-      <c r="D38">
-        <v>2</v>
+      <c r="D38" t="s">
+        <v>8</v>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>478</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>118</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>657759</v>
       </c>
@@ -1273,20 +1390,23 @@
       <c r="C39">
         <v>623921</v>
       </c>
-      <c r="D39">
-        <v>2</v>
+      <c r="D39" t="s">
+        <v>8</v>
       </c>
       <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
         <v>118</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>499731</v>
       </c>
@@ -1296,20 +1416,23 @@
       <c r="C40">
         <v>624293</v>
       </c>
-      <c r="D40">
-        <v>2</v>
+      <c r="D40" t="s">
+        <v>8</v>
       </c>
       <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>162</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>55</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>667568</v>
       </c>
@@ -1319,20 +1442,23 @@
       <c r="C41">
         <v>197542.9887</v>
       </c>
-      <c r="D41">
-        <v>2</v>
+      <c r="D41" t="s">
+        <v>8</v>
       </c>
       <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>31</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>754929</v>
       </c>
@@ -1342,20 +1468,23 @@
       <c r="C42">
         <v>627063</v>
       </c>
-      <c r="D42">
-        <v>2</v>
+      <c r="D42" t="s">
+        <v>8</v>
       </c>
       <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>141</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>46</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>755017</v>
       </c>
@@ -1365,20 +1494,23 @@
       <c r="C43">
         <v>623725</v>
       </c>
-      <c r="D43">
-        <v>2</v>
+      <c r="D43" t="s">
+        <v>8</v>
       </c>
       <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
         <v>118</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>226670</v>
       </c>
@@ -1388,20 +1520,23 @@
       <c r="C44">
         <v>628374</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>16</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>160432</v>
       </c>
@@ -1411,37 +1546,40 @@
       <c r="C45">
         <v>628018</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>589</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>641639</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>129</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>657247</v>
       </c>
@@ -1451,20 +1589,23 @@
       <c r="C47">
         <v>623426</v>
       </c>
-      <c r="D47">
-        <v>2</v>
+      <c r="D47" t="s">
+        <v>8</v>
       </c>
       <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>137</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>646612</v>
       </c>
@@ -1474,20 +1615,23 @@
       <c r="C48">
         <v>627063</v>
       </c>
-      <c r="D48">
-        <v>2</v>
+      <c r="D48" t="s">
+        <v>8</v>
       </c>
       <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
         <v>52</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>733675</v>
       </c>
@@ -1497,20 +1641,23 @@
       <c r="C49">
         <v>623426</v>
       </c>
-      <c r="D49">
-        <v>2</v>
+      <c r="D49" t="s">
+        <v>8</v>
       </c>
       <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
         <v>415</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>34</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>359232</v>
       </c>
@@ -1520,20 +1667,23 @@
       <c r="C50">
         <v>624137</v>
       </c>
-      <c r="D50">
-        <v>2</v>
+      <c r="D50" t="s">
+        <v>8</v>
       </c>
       <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>149</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>47</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>346437</v>
       </c>
@@ -1543,20 +1693,23 @@
       <c r="C51">
         <v>624630</v>
       </c>
-      <c r="D51">
-        <v>2</v>
+      <c r="D51" t="s">
+        <v>8</v>
       </c>
       <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
         <v>213</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>81</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>172023</v>
       </c>
@@ -1566,20 +1719,23 @@
       <c r="C52">
         <v>624086</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>538</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>343921</v>
       </c>
@@ -1589,20 +1745,23 @@
       <c r="C53">
         <v>624630</v>
       </c>
-      <c r="D53">
-        <v>2</v>
+      <c r="D53" t="s">
+        <v>8</v>
       </c>
       <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
         <v>245</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>50</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>659615</v>
       </c>
@@ -1612,20 +1771,23 @@
       <c r="C54">
         <v>198486.6372</v>
       </c>
-      <c r="D54">
-        <v>2</v>
+      <c r="D54" t="s">
+        <v>8</v>
       </c>
       <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>96</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>112078</v>
       </c>
@@ -1635,20 +1797,23 @@
       <c r="C55">
         <v>627529</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
         <v>3</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>299</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>338087</v>
       </c>
@@ -1658,20 +1823,23 @@
       <c r="C56">
         <v>627454</v>
       </c>
-      <c r="D56">
-        <v>2</v>
+      <c r="D56" t="s">
+        <v>8</v>
       </c>
       <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>197</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>85</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>615971</v>
       </c>
@@ -1681,20 +1849,23 @@
       <c r="C57">
         <v>625939</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>184</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>74</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>236299</v>
       </c>
@@ -1704,20 +1875,23 @@
       <c r="C58">
         <v>625914</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
         <v>3</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>195</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>45</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>136010</v>
       </c>
@@ -1727,20 +1901,23 @@
       <c r="C59">
         <v>626478</v>
       </c>
-      <c r="D59">
-        <v>2</v>
+      <c r="D59" t="s">
+        <v>8</v>
       </c>
       <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
         <v>215</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>123</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>746354</v>
       </c>
@@ -1750,20 +1927,23 @@
       <c r="C60">
         <v>623347</v>
       </c>
-      <c r="D60">
-        <v>2</v>
+      <c r="D60" t="s">
+        <v>8</v>
       </c>
       <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
         <v>82</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>346742</v>
       </c>
@@ -1773,20 +1953,23 @@
       <c r="C61">
         <v>626694</v>
       </c>
-      <c r="D61">
-        <v>2</v>
+      <c r="D61" t="s">
+        <v>8</v>
       </c>
       <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>426</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>108</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>113639</v>
       </c>
@@ -1796,20 +1979,23 @@
       <c r="C62">
         <v>628208</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>153</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>288027</v>
       </c>
@@ -1819,20 +2005,23 @@
       <c r="C63">
         <v>626913</v>
       </c>
-      <c r="D63">
-        <v>2</v>
+      <c r="D63" t="s">
+        <v>8</v>
       </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>161</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>52</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>712794</v>
       </c>
@@ -1842,20 +2031,23 @@
       <c r="C64">
         <v>624376</v>
       </c>
-      <c r="D64">
-        <v>2</v>
+      <c r="D64" t="s">
+        <v>8</v>
       </c>
       <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>287</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>53</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>758342</v>
       </c>
@@ -1865,20 +2057,23 @@
       <c r="C65">
         <v>625092</v>
       </c>
-      <c r="D65">
-        <v>2</v>
+      <c r="D65" t="s">
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>28</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>353599</v>
       </c>
@@ -1888,20 +2083,23 @@
       <c r="C66">
         <v>624804</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>3</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>202</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>747469</v>
       </c>
@@ -1911,20 +2109,23 @@
       <c r="C67">
         <v>626217</v>
       </c>
-      <c r="D67">
-        <v>2</v>
+      <c r="D67" t="s">
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>39</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>632208</v>
       </c>
@@ -1934,20 +2135,23 @@
       <c r="C68">
         <v>624262</v>
       </c>
-      <c r="D68">
-        <v>2</v>
+      <c r="D68" t="s">
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>165738</v>
       </c>
@@ -1957,20 +2161,23 @@
       <c r="C69">
         <v>625914</v>
       </c>
-      <c r="D69">
-        <v>2</v>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>43</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>728733</v>
       </c>
@@ -1980,20 +2187,23 @@
       <c r="C70">
         <v>623850</v>
       </c>
-      <c r="D70">
-        <v>2</v>
+      <c r="D70" t="s">
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>23</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>360552</v>
       </c>
@@ -2003,20 +2213,23 @@
       <c r="C71">
         <v>627423</v>
       </c>
-      <c r="D71">
-        <v>2</v>
+      <c r="D71" t="s">
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>26</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>722272</v>
       </c>
@@ -2026,20 +2239,23 @@
       <c r="C72">
         <v>628657</v>
       </c>
-      <c r="D72">
-        <v>2</v>
+      <c r="D72" t="s">
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>52</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>338756</v>
       </c>
@@ -2049,20 +2265,23 @@
       <c r="C73">
         <v>625692</v>
       </c>
-      <c r="D73">
-        <v>2</v>
+      <c r="D73" t="s">
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>37</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>142216</v>
       </c>
@@ -2072,20 +2291,23 @@
       <c r="C74">
         <v>627712</v>
       </c>
-      <c r="D74">
-        <v>2</v>
+      <c r="D74" t="s">
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>519603</v>
       </c>
@@ -2095,20 +2317,23 @@
       <c r="C75">
         <v>624220</v>
       </c>
-      <c r="D75">
-        <v>2</v>
+      <c r="D75" t="s">
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>47</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>141481</v>
       </c>
@@ -2118,20 +2343,23 @@
       <c r="C76">
         <v>624471</v>
       </c>
-      <c r="D76">
-        <v>2</v>
+      <c r="D76" t="s">
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>739011</v>
       </c>
@@ -2141,20 +2369,23 @@
       <c r="C77">
         <v>627414</v>
       </c>
-      <c r="D77">
-        <v>2</v>
+      <c r="D77" t="s">
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>55</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>755157</v>
       </c>
@@ -2164,20 +2395,23 @@
       <c r="C78">
         <v>628670</v>
       </c>
-      <c r="D78">
-        <v>2</v>
+      <c r="D78" t="s">
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>9</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>739185</v>
       </c>
@@ -2187,20 +2421,23 @@
       <c r="C79">
         <v>624692</v>
       </c>
-      <c r="D79">
-        <v>2</v>
+      <c r="D79" t="s">
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>38</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>729038</v>
       </c>
@@ -2210,20 +2447,23 @@
       <c r="C80">
         <v>624277</v>
       </c>
-      <c r="D80">
-        <v>2</v>
+      <c r="D80" t="s">
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>14</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>520411</v>
       </c>
@@ -2233,20 +2473,23 @@
       <c r="C81">
         <v>624250</v>
       </c>
-      <c r="D81">
-        <v>2</v>
+      <c r="D81" t="s">
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>33</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>631424</v>
       </c>
@@ -2256,20 +2499,23 @@
       <c r="C82">
         <v>624771</v>
       </c>
-      <c r="D82">
-        <v>2</v>
+      <c r="D82" t="s">
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
         <v>48</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>519926</v>
       </c>
@@ -2279,20 +2525,23 @@
       <c r="C83">
         <v>624771</v>
       </c>
-      <c r="D83">
-        <v>2</v>
+      <c r="D83" t="s">
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>733907</v>
       </c>
@@ -2302,20 +2551,23 @@
       <c r="C84">
         <v>627238</v>
       </c>
-      <c r="D84">
-        <v>2</v>
+      <c r="D84" t="s">
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>57</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>499756</v>
       </c>
@@ -2325,20 +2577,23 @@
       <c r="C85">
         <v>627379</v>
       </c>
-      <c r="D85">
-        <v>2</v>
+      <c r="D85" t="s">
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
         <v>31</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>728717</v>
       </c>
@@ -2348,20 +2603,23 @@
       <c r="C86">
         <v>626750</v>
       </c>
-      <c r="D86">
-        <v>2</v>
+      <c r="D86" t="s">
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>34</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>183269</v>
       </c>
@@ -2371,20 +2629,23 @@
       <c r="C87">
         <v>627208</v>
       </c>
-      <c r="D87">
-        <v>2</v>
+      <c r="D87" t="s">
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
         <v>48</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>755603</v>
       </c>
@@ -2394,20 +2655,23 @@
       <c r="C88">
         <v>628234</v>
       </c>
-      <c r="D88">
-        <v>2</v>
+      <c r="D88" t="s">
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
         <v>40</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>519918</v>
       </c>
@@ -2417,20 +2681,23 @@
       <c r="C89">
         <v>627648</v>
       </c>
-      <c r="D89">
-        <v>2</v>
+      <c r="D89" t="s">
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>9</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>761858</v>
       </c>
@@ -2440,20 +2707,23 @@
       <c r="C90">
         <v>627570</v>
       </c>
-      <c r="D90">
-        <v>2</v>
+      <c r="D90" t="s">
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>20</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>761320</v>
       </c>
@@ -2463,20 +2733,23 @@
       <c r="C91">
         <v>628936</v>
       </c>
-      <c r="D91">
-        <v>2</v>
+      <c r="D91" t="s">
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
         <v>54</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>476903</v>
       </c>
@@ -2486,20 +2759,23 @@
       <c r="C92">
         <v>628735</v>
       </c>
-      <c r="D92">
-        <v>2</v>
+      <c r="D92" t="s">
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
         <v>54</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>460717</v>
       </c>
@@ -2509,20 +2785,23 @@
       <c r="C93">
         <v>625615</v>
       </c>
-      <c r="D93">
-        <v>2</v>
+      <c r="D93" t="s">
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>21</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>560250</v>
       </c>
@@ -2532,20 +2811,23 @@
       <c r="C94">
         <v>628671</v>
       </c>
-      <c r="D94">
-        <v>2</v>
+      <c r="D94" t="s">
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
         <v>37</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>346445</v>
       </c>
@@ -2555,20 +2837,23 @@
       <c r="C95">
         <v>626477</v>
       </c>
-      <c r="D95">
-        <v>2</v>
+      <c r="D95" t="s">
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>19</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>144600</v>
       </c>
@@ -2578,20 +2863,23 @@
       <c r="C96">
         <v>624915</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
         <v>3</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
         <v>252</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>560318</v>
       </c>
@@ -2601,20 +2889,23 @@
       <c r="C97">
         <v>627379</v>
       </c>
-      <c r="D97">
-        <v>2</v>
+      <c r="D97" t="s">
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>338277</v>
       </c>
@@ -2624,20 +2915,23 @@
       <c r="C98">
         <v>623372</v>
       </c>
-      <c r="D98">
-        <v>2</v>
+      <c r="D98" t="s">
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>733824</v>
       </c>
@@ -2647,20 +2941,23 @@
       <c r="C99">
         <v>627480</v>
       </c>
-      <c r="D99">
-        <v>2</v>
+      <c r="D99" t="s">
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
         <v>25</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>632232</v>
       </c>
@@ -2670,20 +2967,23 @@
       <c r="C100">
         <v>624487</v>
       </c>
-      <c r="D100">
-        <v>2</v>
+      <c r="D100" t="s">
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>747493</v>
       </c>
@@ -2693,20 +2993,23 @@
       <c r="C101">
         <v>624223</v>
       </c>
-      <c r="D101">
-        <v>2</v>
+      <c r="D101" t="s">
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
         <v>47</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>476465</v>
       </c>
@@ -2716,20 +3019,23 @@
       <c r="C102">
         <v>628238</v>
       </c>
-      <c r="D102">
-        <v>2</v>
+      <c r="D102" t="s">
+        <v>8</v>
       </c>
       <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
         <v>191</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>55</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>632737</v>
       </c>
@@ -2739,20 +3045,23 @@
       <c r="C103">
         <v>623605</v>
       </c>
-      <c r="D103">
-        <v>2</v>
+      <c r="D103" t="s">
+        <v>8</v>
       </c>
       <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
         <v>104</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>111179</v>
       </c>
@@ -2762,20 +3071,23 @@
       <c r="C104">
         <v>628087</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
         <v>3</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>319</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>361014</v>
       </c>
@@ -2785,20 +3097,23 @@
       <c r="C105">
         <v>627238</v>
       </c>
-      <c r="D105">
-        <v>2</v>
+      <c r="D105" t="s">
+        <v>8</v>
       </c>
       <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
         <v>67</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>24</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>124057</v>
       </c>
@@ -2808,20 +3123,23 @@
       <c r="C106">
         <v>625914</v>
       </c>
-      <c r="D106">
-        <v>2</v>
+      <c r="D106" t="s">
+        <v>8</v>
       </c>
       <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
         <v>324</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>111</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>160424</v>
       </c>
@@ -2831,20 +3149,23 @@
       <c r="C107">
         <v>625878</v>
       </c>
-      <c r="D107">
-        <v>2</v>
+      <c r="D107" t="s">
+        <v>8</v>
       </c>
       <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
         <v>226</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>77</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>239863</v>
       </c>
@@ -2854,20 +3175,23 @@
       <c r="C108">
         <v>624047</v>
       </c>
-      <c r="D108">
-        <v>2</v>
+      <c r="D108" t="s">
+        <v>8</v>
       </c>
       <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
         <v>33</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>24</v>
       </c>
-      <c r="G108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>631341</v>
       </c>
@@ -2877,20 +3201,23 @@
       <c r="C109">
         <v>628733</v>
       </c>
-      <c r="D109">
-        <v>2</v>
+      <c r="D109" t="s">
+        <v>8</v>
       </c>
       <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
         <v>57</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>199117</v>
       </c>
@@ -2900,20 +3227,23 @@
       <c r="C110">
         <v>624877</v>
       </c>
-      <c r="D110">
-        <v>2</v>
+      <c r="D110" t="s">
+        <v>8</v>
       </c>
       <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
         <v>254</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>77</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>430264</v>
       </c>
@@ -2923,20 +3253,23 @@
       <c r="C111">
         <v>624632</v>
       </c>
-      <c r="D111">
-        <v>2</v>
+      <c r="D111" t="s">
+        <v>8</v>
       </c>
       <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
         <v>183</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>52</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>749978</v>
       </c>
@@ -2946,20 +3279,23 @@
       <c r="C112">
         <v>627063</v>
       </c>
-      <c r="D112">
-        <v>2</v>
+      <c r="D112" t="s">
+        <v>8</v>
       </c>
       <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
         <v>198</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>43</v>
       </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>530030</v>
       </c>
@@ -2969,20 +3305,23 @@
       <c r="C113">
         <v>627874</v>
       </c>
-      <c r="D113">
-        <v>2</v>
+      <c r="D113" t="s">
+        <v>8</v>
       </c>
       <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
         <v>75</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>36</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>267963</v>
       </c>
@@ -2992,20 +3331,23 @@
       <c r="C114">
         <v>624851</v>
       </c>
-      <c r="D114">
-        <v>2</v>
+      <c r="D114" t="s">
+        <v>8</v>
       </c>
       <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
         <v>654</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>216</v>
       </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>360750</v>
       </c>
@@ -3015,20 +3357,23 @@
       <c r="C115">
         <v>624572</v>
       </c>
-      <c r="D115">
-        <v>2</v>
+      <c r="D115" t="s">
+        <v>8</v>
       </c>
       <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
         <v>182</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>61</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>646703</v>
       </c>
@@ -3038,20 +3383,23 @@
       <c r="C116">
         <v>625286</v>
       </c>
-      <c r="D116">
-        <v>2</v>
+      <c r="D116" t="s">
+        <v>8</v>
       </c>
       <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
         <v>94</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>174623</v>
       </c>
@@ -3061,20 +3409,23 @@
       <c r="C117">
         <v>624876</v>
       </c>
-      <c r="D117">
-        <v>2</v>
+      <c r="D117" t="s">
+        <v>8</v>
       </c>
       <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
         <v>184</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>71</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>114348</v>
       </c>
@@ -3084,20 +3435,23 @@
       <c r="C118">
         <v>627650</v>
       </c>
-      <c r="D118">
-        <v>2</v>
+      <c r="D118" t="s">
+        <v>8</v>
       </c>
       <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
         <v>805</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>254</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>759050</v>
       </c>
@@ -3107,20 +3461,23 @@
       <c r="C119">
         <v>628733</v>
       </c>
-      <c r="D119">
-        <v>2</v>
+      <c r="D119" t="s">
+        <v>8</v>
       </c>
       <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
         <v>226</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>44</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>749937</v>
       </c>
@@ -3130,20 +3487,23 @@
       <c r="C120">
         <v>628733</v>
       </c>
-      <c r="D120">
-        <v>2</v>
+      <c r="D120" t="s">
+        <v>8</v>
       </c>
       <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
         <v>240</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>55</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>745471</v>
       </c>
@@ -3153,20 +3513,23 @@
       <c r="C121">
         <v>623234</v>
       </c>
-      <c r="D121">
-        <v>2</v>
+      <c r="D121" t="s">
+        <v>8</v>
       </c>
       <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
         <v>197</v>
       </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>226340</v>
       </c>
@@ -3176,20 +3539,23 @@
       <c r="C122">
         <v>624876</v>
       </c>
-      <c r="D122">
-        <v>2</v>
+      <c r="D122" t="s">
+        <v>8</v>
       </c>
       <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
         <v>153</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>38</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>646604</v>
       </c>
@@ -3199,20 +3565,23 @@
       <c r="C123">
         <v>628791</v>
       </c>
-      <c r="D123">
-        <v>2</v>
+      <c r="D123" t="s">
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
         <v>14</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>411777</v>
       </c>
@@ -3222,20 +3591,23 @@
       <c r="C124">
         <v>628635</v>
       </c>
-      <c r="D124">
-        <v>2</v>
+      <c r="D124" t="s">
+        <v>8</v>
       </c>
       <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
         <v>79</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>7</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>646562</v>
       </c>
@@ -3245,20 +3617,23 @@
       <c r="C125">
         <v>623851</v>
       </c>
-      <c r="D125">
-        <v>2</v>
+      <c r="D125" t="s">
+        <v>8</v>
       </c>
       <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
         <v>20</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>6</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>756585</v>
       </c>
@@ -3268,20 +3643,23 @@
       <c r="C126">
         <v>623605</v>
       </c>
-      <c r="D126">
-        <v>2</v>
+      <c r="D126" t="s">
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
         <v>109</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>226803</v>
       </c>
@@ -3291,20 +3669,23 @@
       <c r="C127">
         <v>624514</v>
       </c>
-      <c r="D127">
-        <v>2</v>
+      <c r="D127" t="s">
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>28</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>722512</v>
       </c>
@@ -3314,20 +3695,23 @@
       <c r="C128">
         <v>626655</v>
       </c>
-      <c r="D128">
-        <v>2</v>
+      <c r="D128" t="s">
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
         <v>62</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>717769</v>
       </c>
@@ -3337,20 +3721,23 @@
       <c r="C129">
         <v>624848</v>
       </c>
-      <c r="D129">
-        <v>2</v>
+      <c r="D129" t="s">
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
         <v>58</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>362582</v>
       </c>
@@ -3360,20 +3747,23 @@
       <c r="C130">
         <v>627243</v>
       </c>
-      <c r="D130">
-        <v>2</v>
+      <c r="D130" t="s">
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
         <v>51</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>642660</v>
       </c>
@@ -3383,20 +3773,23 @@
       <c r="C131">
         <v>200097.7388</v>
       </c>
-      <c r="D131">
-        <v>2</v>
+      <c r="D131" t="s">
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
         <v>25</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>560359</v>
       </c>
@@ -3406,20 +3799,23 @@
       <c r="C132">
         <v>627927</v>
       </c>
-      <c r="D132">
-        <v>2</v>
+      <c r="D132" t="s">
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
         <v>69</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>197798</v>
       </c>
@@ -3429,20 +3825,23 @@
       <c r="C133">
         <v>627103</v>
       </c>
-      <c r="D133">
-        <v>2</v>
+      <c r="D133" t="s">
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
         <v>103</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>311</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>455477</v>
       </c>
@@ -3452,20 +3851,23 @@
       <c r="C134">
         <v>623893</v>
       </c>
-      <c r="D134">
-        <v>2</v>
+      <c r="D134" t="s">
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
         <v>24</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>142034</v>
       </c>
@@ -3475,20 +3877,23 @@
       <c r="C135">
         <v>625920</v>
       </c>
-      <c r="D135">
-        <v>2</v>
+      <c r="D135" t="s">
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
         <v>10</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>166769</v>
       </c>
@@ -3498,20 +3903,23 @@
       <c r="C136">
         <v>624080</v>
       </c>
-      <c r="D136">
-        <v>2</v>
+      <c r="D136" t="s">
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
         <v>105</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>184002</v>
       </c>
@@ -3521,20 +3929,23 @@
       <c r="C137">
         <v>627750</v>
       </c>
-      <c r="D137">
-        <v>2</v>
+      <c r="D137" t="s">
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
         <v>59</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>756577</v>
       </c>
@@ -3544,20 +3955,23 @@
       <c r="C138">
         <v>627063</v>
       </c>
-      <c r="D138">
-        <v>2</v>
+      <c r="D138" t="s">
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
         <v>31</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>460246</v>
       </c>
@@ -3567,20 +3981,23 @@
       <c r="C139">
         <v>624305</v>
       </c>
-      <c r="D139">
-        <v>2</v>
+      <c r="D139" t="s">
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
         <v>57</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>633198</v>
       </c>
@@ -3590,20 +4007,23 @@
       <c r="C140">
         <v>627063</v>
       </c>
-      <c r="D140">
-        <v>2</v>
+      <c r="D140" t="s">
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
         <v>70</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>560219</v>
       </c>
@@ -3613,20 +4033,23 @@
       <c r="C141">
         <v>627937</v>
       </c>
-      <c r="D141">
-        <v>2</v>
+      <c r="D141" t="s">
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
         <v>136</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>478768</v>
       </c>
@@ -3636,20 +4059,23 @@
       <c r="C142">
         <v>626630</v>
       </c>
-      <c r="D142">
-        <v>2</v>
+      <c r="D142" t="s">
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
         <v>25</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>724906</v>
       </c>
@@ -3659,20 +4085,23 @@
       <c r="C143">
         <v>627063</v>
       </c>
-      <c r="D143">
-        <v>2</v>
+      <c r="D143" t="s">
+        <v>8</v>
       </c>
       <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
         <v>183</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>45</v>
       </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>511402</v>
       </c>
@@ -3682,20 +4111,23 @@
       <c r="C144">
         <v>624572</v>
       </c>
-      <c r="D144">
-        <v>2</v>
+      <c r="D144" t="s">
+        <v>8</v>
       </c>
       <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
         <v>129</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>48</v>
       </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>113522</v>
       </c>
@@ -3705,20 +4137,23 @@
       <c r="C145">
         <v>627534</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145">
         <v>3</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>372</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>248906</v>
       </c>
@@ -3728,20 +4163,23 @@
       <c r="C146">
         <v>624492</v>
       </c>
-      <c r="D146">
-        <v>2</v>
+      <c r="D146" t="s">
+        <v>8</v>
       </c>
       <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
         <v>171</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>58</v>
       </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>747931</v>
       </c>
@@ -3751,20 +4189,23 @@
       <c r="C147">
         <v>623672</v>
       </c>
-      <c r="D147">
-        <v>2</v>
+      <c r="D147" t="s">
+        <v>8</v>
       </c>
       <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
         <v>28</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>455923</v>
       </c>
@@ -3774,20 +4215,23 @@
       <c r="C148">
         <v>628283</v>
       </c>
-      <c r="D148">
-        <v>2</v>
+      <c r="D148" t="s">
+        <v>8</v>
       </c>
       <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
         <v>232</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>49</v>
       </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>175703</v>
       </c>
@@ -3797,20 +4241,23 @@
       <c r="C149">
         <v>625967</v>
       </c>
-      <c r="D149">
-        <v>2</v>
+      <c r="D149" t="s">
+        <v>8</v>
       </c>
       <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
         <v>170</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>74</v>
       </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>743468</v>
       </c>
@@ -3820,20 +4267,23 @@
       <c r="C150">
         <v>623234</v>
       </c>
-      <c r="D150">
-        <v>2</v>
+      <c r="D150" t="s">
+        <v>8</v>
       </c>
       <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
         <v>193</v>
       </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>140848</v>
       </c>
@@ -3843,20 +4293,23 @@
       <c r="C151">
         <v>628818</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151">
         <v>3</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
       <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
         <v>22</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>160135</v>
       </c>
@@ -3866,20 +4319,23 @@
       <c r="C152">
         <v>628256</v>
       </c>
-      <c r="D152">
-        <v>2</v>
+      <c r="D152" t="s">
+        <v>8</v>
       </c>
       <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
         <v>148</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>26</v>
       </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>175448</v>
       </c>
@@ -3889,20 +4345,23 @@
       <c r="C153">
         <v>624081</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153">
         <v>3</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>64</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>38</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>646067</v>
       </c>
@@ -3912,20 +4371,23 @@
       <c r="C154">
         <v>199942.1635</v>
       </c>
-      <c r="D154">
-        <v>2</v>
+      <c r="D154" t="s">
+        <v>8</v>
       </c>
       <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
         <v>26</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>124040</v>
       </c>
@@ -3935,20 +4397,23 @@
       <c r="C155">
         <v>627640</v>
       </c>
-      <c r="D155">
-        <v>2</v>
+      <c r="D155" t="s">
+        <v>8</v>
       </c>
       <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
         <v>227</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>78</v>
       </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>163923</v>
       </c>
@@ -3958,20 +4423,23 @@
       <c r="C156">
         <v>624811</v>
       </c>
-      <c r="D156">
-        <v>2</v>
+      <c r="D156" t="s">
+        <v>8</v>
       </c>
       <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
         <v>77</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>51</v>
       </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>366666</v>
       </c>
@@ -3981,20 +4449,23 @@
       <c r="C157">
         <v>623686</v>
       </c>
-      <c r="D157">
-        <v>2</v>
+      <c r="D157" t="s">
+        <v>8</v>
       </c>
       <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
         <v>268</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>88</v>
       </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>134601</v>
       </c>
@@ -4004,20 +4475,23 @@
       <c r="C158">
         <v>627524</v>
       </c>
-      <c r="D158">
-        <v>2</v>
+      <c r="D158" t="s">
+        <v>8</v>
       </c>
       <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
         <v>276</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>56</v>
       </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>368092</v>
       </c>
@@ -4027,20 +4501,23 @@
       <c r="C159">
         <v>624289</v>
       </c>
-      <c r="D159">
-        <v>2</v>
+      <c r="D159" t="s">
+        <v>8</v>
       </c>
       <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
         <v>114</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>55</v>
       </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>430223</v>
       </c>
@@ -4050,20 +4527,23 @@
       <c r="C160">
         <v>624082</v>
       </c>
-      <c r="D160">
-        <v>2</v>
+      <c r="D160" t="s">
+        <v>8</v>
       </c>
       <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
         <v>201</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>53</v>
       </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>114330</v>
       </c>
@@ -4073,20 +4553,23 @@
       <c r="C161">
         <v>627517</v>
       </c>
-      <c r="D161">
-        <v>2</v>
+      <c r="D161" t="s">
+        <v>8</v>
       </c>
       <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
         <v>242</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>67</v>
       </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>611848</v>
       </c>
@@ -4096,20 +4579,23 @@
       <c r="C162">
         <v>623880</v>
       </c>
-      <c r="D162">
-        <v>2</v>
+      <c r="D162" t="s">
+        <v>8</v>
       </c>
       <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
         <v>242</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>86</v>
       </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>112904</v>
       </c>
@@ -4119,20 +4605,23 @@
       <c r="C163">
         <v>628865</v>
       </c>
-      <c r="D163">
-        <v>2</v>
+      <c r="D163" t="s">
+        <v>8</v>
       </c>
       <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
         <v>74</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>31</v>
       </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>620229</v>
       </c>
@@ -4142,20 +4631,23 @@
       <c r="C164">
         <v>628701</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164">
         <v>3</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
       <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
         <v>33</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>343947</v>
       </c>
@@ -4165,16 +4657,19 @@
       <c r="C165">
         <v>624876</v>
       </c>
-      <c r="D165">
-        <v>2</v>
+      <c r="D165" t="s">
+        <v>8</v>
       </c>
       <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
         <v>149</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>50</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>0</v>
       </c>
     </row>
